--- a/public/all-profiles.xlsx
+++ b/public/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-04T22:49:02-06:00</t>
+    <t>2025-03-08T09:49:37-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/all-profiles.xlsx
+++ b/public/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-08T09:49:37-06:00</t>
+    <t>2025-03-11T13:10:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/all-profiles.xlsx
+++ b/public/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T13:10:34-05:00</t>
+    <t>2025-03-20T16:03:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
